--- a/results/experiments/exp1/220530_exp1_1.xlsx
+++ b/results/experiments/exp1/220530_exp1_1.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\PycharmProjects\yolov5\results\experiments\exp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{18E3371A-A4C5-4387-8451-4AD0D24D756D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6733B822-61C3-4E58-B35F-B50DEB5F9E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView minimized="1" xWindow="2282" yWindow="2282" windowWidth="19563" windowHeight="10257" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="220510_exp1_speed_excl_l6" sheetId="1" r:id="rId1"/>
     <sheet name="perf_vs_compression" sheetId="3" r:id="rId2"/>
     <sheet name="perf_vs_speed" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="46">
   <si>
     <t>model</t>
   </si>
@@ -158,13 +172,19 @@
   <si>
     <t>Average of FPS</t>
   </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Sum of mAP50</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -599,7 +619,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -642,18 +662,21 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="19" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -693,11 +716,30 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -705,16 +747,19 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -732,7 +777,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -808,7 +853,9 @@
         <c:idx val="0"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent5">
+              <a:shade val="65000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -816,23 +863,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:shade val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -888,19 +919,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -948,7 +967,9 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:schemeClr val="accent5">
+              <a:tint val="65000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -956,23 +977,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:tint val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:tint val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1571,7 +1576,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2199,6 +2204,178 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:shade val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:tint val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2751,6 +2928,429 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>int8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.68167867197441134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7148227143641952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78165058232365847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86361608148324864</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68475197108135288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2952430349177857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97572271777207342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.94762595661203786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98127000654864793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99032443539450188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99061758757881802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83461845660631395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98679468591003627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99169073175120881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07DA-4571-895D-785A65CFA4B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>yolov5n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>yolov5s</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>yolov5m</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>yolov5l</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>yolov5n6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>yolov5s6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>yolov5m6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.2480770823066871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6772836769447539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8930268957787133</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0331965547977373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8557955264231899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4205744969822418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8141487616978904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.99911003040798108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9996101162685338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0003685402117524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0001732689813274</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99986739639979194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99984165909343969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9997236634280432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07DA-4571-895D-785A65CFA4B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1981711423"/>
+        <c:axId val="1971101471"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1981711423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1971101471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1971101471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1981711423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
@@ -2760,6 +3360,46 @@
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3769,6 +4409,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3853,8 +5009,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>746184</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>90576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>573656</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>116455</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B7F1D7-37E6-1A32-449D-E1ABE0082FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Thomas" refreshedDate="44711.663064930559" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="22">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas" refreshedDate="44711.663064930559" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="22" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:AF1048576" sheet="220510_exp1_speed_excl_l6"/>
   </cacheSource>
@@ -4755,7 +5952,352 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:D11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="32">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of mAP50" fld="9" subtotal="average" baseField="1" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="F3:I11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -5045,10 +6587,10 @@
     <dataField name="Average of mAP50" fld="9" subtotal="average" showDataAs="percent" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="11">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -5157,353 +6699,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:D11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="32">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of mAP50" fld="9" subtotal="average" baseField="1" baseItem="0" numFmtId="165"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:D11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -5793,11 +6990,11 @@
     <dataField name="Average of FPS" fld="8" subtotal="average" baseField="0" baseItem="1" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="3">
+  <chartFormats count="6">
     <chartFormat chart="2" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5825,6 +7022,42 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -5839,7 +7072,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable7" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="F3:I11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="32">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -6129,10 +7362,10 @@
     <dataField name="Average of FPS" fld="8" subtotal="average" showDataAs="percent" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="2">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="8">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -6149,6 +7382,395 @@
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
               <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FACB0E4-8C2D-40F7-9B42-CC024B77745E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A1:G10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="32">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Average of FPS" fld="8" subtotal="average" showDataAs="percent" baseField="1" baseItem="0" numFmtId="10"/>
+    <dataField name="Sum of mAP50" fld="9" showDataAs="percent" baseField="1" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="2">
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="3">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="0" count="1" selected="0">
+              <x v="6"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="2"/>
             </reference>
           </references>
         </pivotArea>
@@ -6463,7 +8085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6473,25 +8095,25 @@
       <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="31" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="31" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -8720,43 +10342,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="46" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="46" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9001,43 +10623,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F3" sqref="F3:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="46" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="33" max="46" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9279,4 +10901,493 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D963DE23-6A8D-440E-A172-1BFA3A5C43E6}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.2480770823066871</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.99911003040798108</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.68167867197441134</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.94762595661203786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1.6772836769447539</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.9996101162685338</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.7148227143641952</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.98127000654864793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.8930268957787133</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1.0003685402117524</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.78165058232365847</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.99032443539450188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2.0331965547977373</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.0001732689813274</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.86361608148324864</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.99061758757881802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.8557955264231899</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.99986739639979194</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.68475197108135288</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.83461845660631395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2.4205744969822418</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.99984165909343969</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.2952430349177857</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.98679468591003627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1.8141487616978904</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.9997236634280432</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.97572271777207342</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.99169073175120881</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="B4:B10 D4:D10 F4:F10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="E4:E10 E10 G4:G10">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046C3E00-B082-4216-BD50-F4F6D1C5F718}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.2480770823066871</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.99911003040798108</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.68167867197441134</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.94762595661203786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.6772836769447539</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.9996101162685338</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.7148227143641952</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.98127000654864793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.8930268957787133</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.0003685402117524</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.78165058232365847</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.99032443539450188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2.0331965547977373</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.0001732689813274</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.86361608148324864</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.99061758757881802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.8557955264231899</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.99986739639979194</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.68475197108135288</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.83461845660631395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>2.4205744969822418</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.99984165909343969</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1.2952430349177857</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.98679468591003627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.8141487616978904</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.9997236634280432</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.97572271777207342</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.99169073175120881</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>